--- a/06 - Misc Documentation/2021-2022 Season/BoM_Dashboard.xlsx
+++ b/06 - Misc Documentation/2021-2022 Season/BoM_Dashboard.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/param/Documents/GTORDocumentation/06 - Misc Documentation/2021-2022 Season/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8CA2C50-4453-4944-9A74-9EA46E9C5EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BCBF87-435F-A84D-8806-564BFB78FE54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13340" yWindow="500" windowWidth="20260" windowHeight="19200" xr2:uid="{7A4110FB-F398-44E2-99D0-D3932D447A86}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="99">
   <si>
     <t>Unit Price</t>
   </si>
@@ -319,6 +319,18 @@
   </si>
   <si>
     <t>https://www.digikey.com/en/products/detail/stackpole-electronics-inc/CF14JT100R/1741261</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>WRONG AF</t>
+  </si>
+  <si>
+    <t>SHORT THAT SHIT BOY</t>
+  </si>
+  <si>
+    <t>WRONG AF, REAL ONE OTW</t>
   </si>
 </sst>
 </file>
@@ -329,7 +341,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,6 +368,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -425,10 +445,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -451,8 +472,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -817,7 +841,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -884,6 +908,9 @@
         <f t="shared" ref="G2:G16" si="0">E2*F2</f>
         <v>107.4</v>
       </c>
+      <c r="H2" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -908,6 +935,9 @@
         <f t="shared" si="0"/>
         <v>21.98</v>
       </c>
+      <c r="H3" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -932,6 +962,9 @@
         <f t="shared" si="0"/>
         <v>1.3800000000000001</v>
       </c>
+      <c r="H4" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
@@ -956,6 +989,9 @@
         <f t="shared" si="0"/>
         <v>23.46</v>
       </c>
+      <c r="H5" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
@@ -980,12 +1016,15 @@
         <f t="shared" si="0"/>
         <v>36.979999999999997</v>
       </c>
+      <c r="H6" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="12" t="s">
         <v>61</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1004,6 +1043,9 @@
         <f t="shared" si="0"/>
         <v>4.17</v>
       </c>
+      <c r="H7" s="4" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
@@ -1028,12 +1070,15 @@
         <f t="shared" si="0"/>
         <v>7.7</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H8" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="13" t="s">
         <v>58</v>
       </c>
       <c r="C9" s="10" t="s">
@@ -1052,12 +1097,15 @@
         <f t="shared" si="0"/>
         <v>3.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H9" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="13" t="s">
         <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1076,6 +1124,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="H10" s="4" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -1100,6 +1151,9 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
+      <c r="H11" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
@@ -1124,6 +1178,9 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
+      <c r="H12" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
@@ -1148,6 +1205,9 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
+      <c r="H13" s="4" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -1172,6 +1232,9 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
+      <c r="H14" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -1196,6 +1259,9 @@
         <f t="shared" si="0"/>
         <v>89.97</v>
       </c>
+      <c r="H15" s="4" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
@@ -1220,8 +1286,11 @@
         <f t="shared" si="0"/>
         <v>42.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H16" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>51</v>
       </c>
@@ -1244,12 +1313,15 @@
         <f t="shared" ref="G17:G25" si="1">E17*F17</f>
         <v>5.74</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H17" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="12" t="s">
         <v>71</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1268,12 +1340,15 @@
         <f t="shared" si="1"/>
         <v>8.92</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H18" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="13" t="s">
         <v>69</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1292,8 +1367,11 @@
         <f t="shared" si="1"/>
         <v>1.06</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H19" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>51</v>
       </c>
@@ -1316,12 +1394,15 @@
         <f t="shared" si="1"/>
         <v>1.35</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H20" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="13" t="s">
         <v>94</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1340,8 +1421,11 @@
         <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H21" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -1364,8 +1448,11 @@
         <f t="shared" si="1"/>
         <v>0.36</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H22" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>51</v>
       </c>
@@ -1388,8 +1475,11 @@
         <f t="shared" si="1"/>
         <v>0.36</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H23" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>51</v>
       </c>
@@ -1412,12 +1502,15 @@
         <f t="shared" si="1"/>
         <v>0.32</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="H24" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="12" t="s">
         <v>81</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1436,8 +1529,11 @@
         <f t="shared" si="1"/>
         <v>3.12</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H25" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
@@ -1460,8 +1556,11 @@
         <f t="shared" ref="G26:G29" si="2">E26*F26</f>
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H26" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
@@ -1484,8 +1583,11 @@
         <f t="shared" si="2"/>
         <v>5.4</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H27" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>51</v>
       </c>
@@ -1508,12 +1610,15 @@
         <f t="shared" si="2"/>
         <v>10.25</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H28" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="13" t="s">
         <v>91</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1531,6 +1636,9 @@
       <c r="G29" s="2">
         <f t="shared" si="2"/>
         <v>0.70000000000000007</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1657,17 @@
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B25" r:id="rId1" xr:uid="{176B77B5-7714-AC44-8069-3BF07D20C965}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{B296D60B-51D5-B744-A5E5-A00D5AB175C7}"/>
+    <hyperlink ref="B19" r:id="rId3" xr:uid="{60BD5DB4-C87C-BB4B-B562-251D0E8B8FF5}"/>
+    <hyperlink ref="B29" r:id="rId4" xr:uid="{0D443DDA-6A36-7840-A949-C12176CC63D6}"/>
+    <hyperlink ref="B21" r:id="rId5" xr:uid="{6855E402-2882-3540-A4F3-D21B82D67962}"/>
+    <hyperlink ref="B10" r:id="rId6" xr:uid="{7ACFB96F-5F49-614D-9749-FAC6EA9CCA07}"/>
+    <hyperlink ref="B18" r:id="rId7" xr:uid="{E77CE91E-CAE0-1840-A13E-06E3903F1F13}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{3A621104-57E3-6740-BBCA-2E58D6DE3FA9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>